--- a/dairy-farm-backend-new/sampleData.xlsx
+++ b/dairy-farm-backend-new/sampleData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>0</t>
   </si>
@@ -31,76 +31,28 @@
     <t>city</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>{"name":"","email":"","address":"","mobileNo":"","city":"","customerId":""}</t>
-  </si>
-  <si>
-    <t>Devshruti Sen</t>
-  </si>
-  <si>
-    <t>sendevshruti@gmail.com</t>
-  </si>
-  <si>
-    <t>6532898754</t>
+    <t>interstedProd</t>
+  </si>
+  <si>
+    <t>{"name":"","email":"","address":"","mobileNo":"","city":"","interstedProd":"","customerId":""}</t>
+  </si>
+  <si>
+    <t>gjhkhg</t>
+  </si>
+  <si>
+    <t>eve.holt@reqres.in</t>
+  </si>
+  <si>
+    <t>2365897854</t>
   </si>
   <si>
     <t>NEAR YADAV DAIRY BAIRAGARH KALAN</t>
   </si>
   <si>
-    <t>Rest of India</t>
-  </si>
-  <si>
-    <t>A2-Milk</t>
-  </si>
-  <si>
-    <t>{"name":"","email":"","address":"","mobileNo":"","city":"","interstedProd":"","customerId":""}</t>
-  </si>
-  <si>
-    <t>gjhkhg</t>
-  </si>
-  <si>
-    <t>abc123@gmail.com</t>
-  </si>
-  <si>
-    <t>6532897854</t>
-  </si>
-  <si>
-    <t>shkhuf odf affkhfg</t>
-  </si>
-  <si>
     <t>Panchkula</t>
   </si>
   <si>
-    <t>Buffalo Milk</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>xyz12@gmail.com</t>
-  </si>
-  <si>
-    <t>3265898745</t>
-  </si>
-  <si>
-    <t>hdfkjhf dhd fhhdfk h</t>
-  </si>
-  <si>
-    <t>Jamshedpur</t>
-  </si>
-  <si>
-    <t>ironman@avengers</t>
-  </si>
-  <si>
-    <t>7889652312</t>
-  </si>
-  <si>
-    <t>Mohali</t>
-  </si>
-  <si>
-    <t>3265898754</t>
+    <t>Ghee</t>
   </si>
 </sst>
 </file>
@@ -477,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,94 +501,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>